--- a/src/i18n/translate.xlsx
+++ b/src/i18n/translate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\madtale\dev\src\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo\pug-sass-vue-boilerplate\src\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>EN</t>
   </si>
@@ -62,6 +62,14 @@
   </si>
   <si>
     <t>FEATURES</t>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -168,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -226,13 +234,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,6 +327,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,7 +650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -887,9 +907,15 @@
       <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="7">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
